--- a/ontology/enhancement/DeviceType.xlsx
+++ b/ontology/enhancement/DeviceType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Nextcloud\Beegroup\Projects\Desenvolupaments_TIC_BIGG-ENTRACK\5-User_Interfaces\Traducciones\20230607\enhancement_2\enhancement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stoyan/Nextcloud/EN-TRACK repository/WP1 - Data collection requirements (EnergyPro)/Translations BG - enhancement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D22E84-7D01-4D37-A563-CE690242CA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4953314-12F8-F546-AC54-7AA9C33CBBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25875" yWindow="3870" windowWidth="21630" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="178">
   <si>
     <t>uri</t>
   </si>
@@ -539,6 +539,21 @@
   </si>
   <si>
     <t>Друго устройство</t>
+  </si>
+  <si>
+    <t>Електромер</t>
+  </si>
+  <si>
+    <t>Топломер</t>
+  </si>
+  <si>
+    <t>Дебитомер</t>
+  </si>
+  <si>
+    <t>Газомер</t>
+  </si>
+  <si>
+    <t>Измервател на енергия</t>
   </si>
 </sst>
 </file>
@@ -557,6 +572,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -926,20 +942,20 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="37.109375" customWidth="1"/>
+    <col min="6" max="6" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +975,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -979,7 +995,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -999,7 +1015,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1019,7 +1035,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1039,7 +1055,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1075,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1079,7 +1095,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1115,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1119,7 +1135,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1139,7 +1155,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1175,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1179,7 +1195,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1195,8 +1211,11 @@
       <c r="E13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1213,7 +1232,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1230,7 +1249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1247,7 +1266,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1264,7 +1283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1281,7 +1300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1297,8 +1316,11 @@
       <c r="E19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -1314,8 +1336,11 @@
       <c r="E20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1331,8 +1356,11 @@
       <c r="E21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -1349,7 +1377,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -1366,7 +1394,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1383,7 +1411,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -1400,7 +1428,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -1417,7 +1445,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -1425,7 +1453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -1442,7 +1470,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -1459,7 +1487,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -1476,7 +1504,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -1492,8 +1520,11 @@
       <c r="E31" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -1510,7 +1541,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>126</v>
       </c>
